--- a/molgenis-api-tests/src/test/resources/org/molgenis/api/tests/metadata/v3/metadata_api_v3_emx.xlsx
+++ b/molgenis-api-tests/src/test/resources/org/molgenis/api/tests/metadata/v3/metadata_api_v3_emx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -41,6 +41,12 @@
     <t xml:space="preserve">extends </t>
   </si>
   <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifiable</t>
   </si>
   <si>
@@ -56,12 +62,24 @@
     <t xml:space="preserve">v3meta_Describable</t>
   </si>
   <si>
+    <t xml:space="preserve">My Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Dataset with data</t>
+  </si>
+  <si>
     <t xml:space="preserve">MyNumbers</t>
   </si>
   <si>
+    <t xml:space="preserve">My Numbers</t>
+  </si>
+  <si>
     <t xml:space="preserve">MyStrings</t>
   </si>
   <si>
+    <t xml:space="preserve">My Strings</t>
+  </si>
+  <si>
     <t xml:space="preserve">entity</t>
   </si>
   <si>
@@ -125,13 +143,7 @@
     <t xml:space="preserve">int</t>
   </si>
   <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
     <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -430,10 +442,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -442,7 +454,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="5" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="7" style="0" width="8.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -459,10 +473,16 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>1</v>
@@ -474,7 +494,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>1</v>
@@ -484,34 +504,46 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -534,7 +566,7 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -564,72 +596,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -643,13 +675,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -667,13 +699,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="n">
@@ -688,13 +720,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -707,18 +739,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="b">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="T6" s="2" t="n">
@@ -728,16 +761,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J7" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -746,13 +779,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -769,13 +802,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -784,31 +817,31 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J11" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -817,16 +850,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J12" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -835,16 +868,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="J13" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -859,16 +892,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J14" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -881,19 +914,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J15" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -903,13 +936,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J16" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -918,13 +951,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J17" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -933,16 +966,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J18" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -951,16 +984,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J19" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -969,20 +1002,20 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S20" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -991,13 +1024,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -1011,13 +1044,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -1035,13 +1068,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -1055,13 +1088,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H24" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -1106,34 +1139,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1167,10 +1200,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,7 +1275,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
